--- a/SoftDrinks.xlsx
+++ b/SoftDrinks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalebcorcoran/Downloads/Student Data Files/Chapter 02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalebcorcoran/Documents/GitHub/QMBE_1320_Kaleb_Corcoran/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84436356-7A48-4F46-A7E9-306EDDD2B9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DABC0AE-DC3F-334E-8AFE-BEC446F8B52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
